--- a/StockDiary/股市日志.xlsx
+++ b/StockDiary/股市日志.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2016-06-17" sheetId="1" r:id="rId1"/>
     <sheet name="2016-06-20" sheetId="2" r:id="rId2"/>
     <sheet name="2016-06-28" sheetId="3" r:id="rId3"/>
     <sheet name="2016-07-06" sheetId="4" r:id="rId4"/>
+    <sheet name="2016-07-12" sheetId="5" r:id="rId5"/>
+    <sheet name="2016-07-13" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,31 +193,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选股条件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖坑分为上涨途中吸盘式的挖坑、一个月以上的横盘整理后出现挖坑埋筹。成功率达85%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多周期观察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小级别：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、资金博弈主力拉；2、KDJ向上；3、宝塔线齐平向上。（此为买入信息，多屏观察，多个信号指示买入）（牛股）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多屏看盘的个体：1、操盘，2、私募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波段低吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股条件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以趋势型的MACD线0轴之上的强势区域为前提，在两条先不死叉而蜻蜓点水向上说明该股强势未减，有望重拾上涨上升之势。  成功率达：95%</t>
+  </si>
+  <si>
+    <t>操作技巧：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">只要MACD线在0轴之上粘合时不出现死叉（将死不死），侧反身继续向上，在中阳线的当天立即买入，持股到阶段性高点可以选择卖出。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下跌期3%选股法</t>
+  </si>
+  <si>
+    <t>东方财富通版公式源码如下：</t>
+  </si>
+  <si>
+    <t>A1:=MA(CLOSE,5);
+A2:=MA(CLOSE,10);
+A3:=MA(CLOSE,20);
+VOLUME:=VOL;
+MAVOL:=MA(VOL,120);
+AA:=FINANCE(7);
+A1&gt;REF(A1,1) AND CLOSE&gt;=A1 AND CLOSE&lt;=REF(CLOSE,1) AND COUNT(A1&gt;A3 AND A2&gt;A3,3)&gt;=3 AND COUNT(VOLUME&gt;MAVOL,3)&gt;=3 AND COUNT(CLOSE&gt;A3,3)&gt;=3 AND AA&gt;0 AND AA&lt;=1000000000;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选步骤：</t>
+  </si>
+  <si>
+    <t>1、20日均线上方3天以上，成交量120日均线上方3天以上
+2、5日均线10日均线20日均线多头排列上方无压力呈上升趋势
+3、大单比率柱子是红色
+4、个股回调不能偏离5日均线太多，收盘价越接近5日均线为最好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作方法：</t>
+  </si>
+  <si>
+    <t>尾盘买入，次日3%收益卖出。</t>
+  </si>
+  <si>
     <t>挖坑洗盘——牛股埋筹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选股条件：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖坑分为上涨途中吸盘式的挖坑、一个月以上的横盘整理后出现挖坑埋筹。成功率达85%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多周期观察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小级别：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、资金博弈主力拉；2、KDJ向上；3、宝塔线齐平向上。（此为买入信息，多屏观察，多个信号指示买入）（牛股）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多屏看盘的个体：1、操盘，2、私募</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +306,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7F5869"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF323E32"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -360,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +447,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -682,23 +783,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -706,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -720,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -728,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -736,12 +837,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -752,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5">
       <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
@@ -760,7 +861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5">
       <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
@@ -768,7 +869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5">
       <c r="B23" s="11" t="s">
         <v>18</v>
       </c>
@@ -776,13 +877,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
         <v>10</v>
       </c>
@@ -794,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5">
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
@@ -804,73 +905,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5">
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5">
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -891,17 +992,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -920,84 +1021,84 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7">
       <c r="G10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>35</v>
       </c>
@@ -1012,13 +1113,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -1036,7 +1137,7 @@
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13">
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1049,7 +1150,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1062,17 +1163,19 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="C6" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -1085,7 +1188,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13">
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -1098,7 +1201,7 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13">
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -1111,17 +1214,17 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="C11" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1134,7 +1237,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -1147,7 +1250,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13">
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1160,16 +1263,361 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13">
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C2:M4"/>
     <mergeCell ref="C6:M8"/>
     <mergeCell ref="C11:M13"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="14.25" customHeight="1">
+      <c r="C10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:N7"/>
+    <mergeCell ref="C10:N11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:10" ht="20.25">
+      <c r="B2" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="21.75">
+      <c r="C4" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="D6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="18" spans="2:10" ht="21.75">
+      <c r="B18" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="13.5" customHeight="1">
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="2:10" ht="21.75">
+      <c r="B26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="2:10" ht="21.75">
+      <c r="C28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D6:J16"/>
+    <mergeCell ref="C20:J24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockDiary/股市日志.xlsx
+++ b/StockDiary/股市日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2016-06-17" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="2016-07-06" sheetId="4" r:id="rId4"/>
     <sheet name="2016-07-12" sheetId="5" r:id="rId5"/>
     <sheet name="2016-07-13" sheetId="6" r:id="rId6"/>
+    <sheet name="2016-07-15" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +272,19 @@
   <si>
     <t>挖坑洗盘——牛股埋筹</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中长线选股</t>
+  </si>
+  <si>
+    <t>狮子张口——一阳并吞</t>
+  </si>
+  <si>
+    <t>选股条件：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般为洗盘下跌后出现缩量小阴小阳的平台盘整，短则5天内，长则两周左右， 突然某一天出现5个点以上的大阳一口吞没前期平台所有K线。成功率达到80%</t>
   </si>
 </sst>
 </file>
@@ -428,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,11 +458,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -476,10 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -783,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1123,96 +1138,96 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
@@ -1223,45 +1238,45 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="15" spans="2:13">
       <c r="C15" t="s">
@@ -1302,48 +1317,48 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
@@ -1351,34 +1366,34 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1402,217 +1417,217 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="21.75">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="18" spans="2:10" ht="21.75">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10" ht="21.75">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" ht="21.75">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1623,4 +1638,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="C7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:N9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/StockDiary/股市日志.xlsx
+++ b/StockDiary/股市日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2016-06-17" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="2016-07-12" sheetId="5" r:id="rId5"/>
     <sheet name="2016-07-13" sheetId="6" r:id="rId6"/>
     <sheet name="2016-07-15" sheetId="7" r:id="rId7"/>
+    <sheet name="2016-07-17" sheetId="8" r:id="rId8"/>
+    <sheet name="2016-07-18" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,12 +288,658 @@
   <si>
     <t>一般为洗盘下跌后出现缩量小阴小阳的平台盘整，短则5天内，长则两周左右， 突然某一天出现5个点以上的大阳一口吞没前期平台所有K线。成功率达到80%</t>
   </si>
+  <si>
+    <t>MACD的魅力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急涨之下必有下跌，急跌之下必有反弹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防止主力死叉骗线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金叉的成功率42%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金叉后死叉，回调马上又金叉（不能超过15个K线，超过20个K线不考虑），成功率80%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骗线：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0轴线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2007年为什么会有一波牛市？因为当时大约有80%以上的股票，</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日、周、月MACD技术指标都被完美地调整到0轴线上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。一般规律：当一只股票经过一轮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长时间的吸货行情后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周MACD被完美地调整到0轴线附件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一旦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金叉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接下类的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爆发力会很强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当好股票是关键，一定不能选已经充分拉升的股票，选周MACD被调整到0轴线附件，有形成金叉趋势的股票。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD精髓：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>揭示趋势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（只有趋势，庄家是无法欺骗的）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遵循一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原则：0轴线以下无机会</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为什么说-轴线以下无机会？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>因为0轴线以下大盘或个股的趋势是向下的，跌了还会跌，而主力若想做行情必须先收复0轴线。我们知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60日线是股票的生命线，也是主力的成本线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，60日线失守，基本宣判了该股的死刑。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收复0轴线技术上相当于收复60日均线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这说明主力蠢蠢欲动了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在去年的大牛市中，可以发现，日MACD指标每次被调整到0轴线以下都是买入机会，而在今年的大熊市中，MACD指标飙升到0轴线以上不久都是卖出机会。江恩说，“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>牛市中逆市回调</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是买入时机，熊市中逆市反弹3周是卖出时机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。江恩还说，“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>牛市中连续调整</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应买入，熊市中连续反弹3天应卖出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>研究一个指标，一定要从以下几个方面来看：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多空平衡点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>背离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周期共振</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等。天下指标是一家。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0轴，重要的多空分界线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上了0轴线的股票说明一个事实，那就是它已经由弱转强了，完成了趋势的扭转。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD和0轴的管理与股价和MA60的关系大体一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0轴之上根据MACD进行操作，相当于在一个均线发散多头的市场中赚钱，风险将大大降低。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0轴的引力和弹力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0轴上平飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIF，趋势利器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、中短线风向标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIF的方向代表着短期的价格走势方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIF线的方向与MA5基本吻合，DIF与DEA的交叉基本上就是MA5与MA10的交叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、空中加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种走势结合到波浪理论中，无外乎调整浪走完以后，推动的三浪或者五浪的行情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这种走势有一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：就是要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在0轴之上，至少也要在0轴附近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。原因很简单，如果连0轴都没有上，也就是没有冲破MA60，即使有空中加油的形态，属于低级别的可能性比较大，在这种情况下，预示着行情还没有完全的转强，还具有较大的风险性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇的MACD柱体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、伸头缩脚语缩头伸脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸头：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生成的一根MACD柱体为正值并且比前一根长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩脚：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生成的一个MACD柱体为负值但比前一根短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩头伸脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是MACD柱体的形状不一样，使用伸头缩脚买入的成功率也是不一样的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般对于暴涨暴跌的股票，会在MACD柱状体上显现的界限、趋势十分分明，并且十分陡峭，成功率也相对较高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +983,50 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +1036,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,6 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -494,6 +1191,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,96 +1876,96 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
@@ -1238,45 +1976,45 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="15" spans="2:13">
       <c r="C15" t="s">
@@ -1317,48 +2055,48 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
@@ -1366,34 +2104,34 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1427,105 +2165,105 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="18" spans="2:10" ht="21.75">
       <c r="B18" s="14" t="s">
@@ -1533,56 +2271,56 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="2:10">
       <c r="C25" s="15"/>
@@ -1644,7 +2382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1669,48 +2407,48 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1720,4 +2458,557 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" s="33"/>
+      <c r="D5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="D8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12">
+      <c r="D17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="4:12">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="D22" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="24" spans="4:12">
+      <c r="D24" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="D28" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="4:12">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="4:12">
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="4:12">
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="F35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="E42" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="E45" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="E46" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="C50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="41"/>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="1:15" s="41" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D53" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="D54" s="43"/>
+      <c r="E54" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="D55" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="D57" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="D58" s="45"/>
+      <c r="E58" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="C61" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="E58:O58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C61:M61"/>
+    <mergeCell ref="F33:M33"/>
+    <mergeCell ref="E45:L45"/>
+    <mergeCell ref="E46:L48"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D24:L26"/>
+    <mergeCell ref="D28:L31"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D17:L20"/>
+    <mergeCell ref="D22:L22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="3:13">
+      <c r="C4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StockDiary/股市日志.xlsx
+++ b/StockDiary/股市日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2016-06-17" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="2016-07-15" sheetId="7" r:id="rId7"/>
     <sheet name="2016-07-17" sheetId="8" r:id="rId8"/>
     <sheet name="2016-07-18" sheetId="9" r:id="rId9"/>
+    <sheet name="2016-07-19" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -932,6 +933,54 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30日均线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即生命线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日均线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即攻击线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、生命线向上，股价增量跌破生命线是低位建仓的良机，缩量力度越小越好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、底部生命线、股价和量的特点： 股价底部围绕生命线震荡，一旦股价再次放量站上生命线并且开口向上，中期行情就此展开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、向上突破30日均线一定是放量，向下回调跌破30日均线一定是缩量，向下脱离生命线越远，缩量越明显。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕30日均线震荡的关键点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、30日均线和股价的背离。随着股价的来回震荡，股价创新低，30日均线却出现低点抬升，随着缩量下跌的持续，生命线出现横盘，这就是所谓的生命线和股价的背离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命线高位拐头向下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、角度大于30，出局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、角度小于30，之后重新站上30日均线，持股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1138,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,6 +1210,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1192,9 +1251,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1205,33 +1274,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1737,6 +1790,144 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:14" s="18" customFormat="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="C5" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="C6" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="C9" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="C10" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C10:N11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
@@ -1876,96 +2067,96 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
@@ -1976,45 +2167,45 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="15" spans="2:13">
       <c r="C15" t="s">
@@ -2055,48 +2246,48 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
@@ -2104,34 +2295,34 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2165,105 +2356,105 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="18" spans="2:10" ht="21.75">
       <c r="B18" s="14" t="s">
@@ -2271,56 +2462,56 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="2:10">
       <c r="C25" s="15"/>
@@ -2407,48 +2598,48 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2464,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2480,24 +2671,24 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="C5" s="33"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="17" t="s">
@@ -2505,39 +2696,39 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:10">
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:10">
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="12" spans="2:10">
       <c r="D12" t="s">
@@ -2555,162 +2746,162 @@
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
     </row>
     <row r="34" spans="3:13">
       <c r="F34" t="s">
@@ -2736,7 +2927,7 @@
       <c r="C39" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2749,15 +2940,15 @@
       </c>
     </row>
     <row r="42" spans="3:13">
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="44" spans="3:13">
       <c r="D44" t="s">
@@ -2765,174 +2956,174 @@
       </c>
     </row>
     <row r="45" spans="3:13">
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
     </row>
     <row r="47" spans="3:13">
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
     </row>
     <row r="48" spans="3:13">
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:15">
       <c r="C50" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="41"/>
+      <c r="A52" s="22"/>
       <c r="D52" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-    </row>
-    <row r="53" spans="1:15" s="41" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D53" s="43" t="s">
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D53" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="D54" s="43"/>
-      <c r="E54" s="40" t="s">
+      <c r="D54" s="40"/>
+      <c r="E54" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="D58" s="45"/>
-      <c r="E58" s="42" t="s">
+      <c r="D58" s="36"/>
+      <c r="E58" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
     </row>
     <row r="61" spans="1:15">
       <c r="C61" s="37" t="s">
@@ -2951,6 +3142,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D24:L26"/>
+    <mergeCell ref="D28:L31"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D17:L20"/>
+    <mergeCell ref="D22:L22"/>
     <mergeCell ref="E58:O58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="C61:M61"/>
@@ -2962,16 +3163,6 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E57:I57"/>
     <mergeCell ref="J57:L57"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D24:L26"/>
-    <mergeCell ref="D28:L31"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D17:L20"/>
-    <mergeCell ref="D22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2990,19 +3181,19 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="3:13">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/StockDiary/股市日志.xlsx
+++ b/StockDiary/股市日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2016-06-17" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="2016-07-17" sheetId="8" r:id="rId8"/>
     <sheet name="2016-07-18" sheetId="9" r:id="rId9"/>
     <sheet name="2016-07-19" sheetId="10" r:id="rId10"/>
+    <sheet name="2016-07-28" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
   <si>
     <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,6 +982,86 @@
   </si>
   <si>
     <t>2、角度小于30，之后重新站上30日均线，持股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心诚老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、股票K线与大盘叠加，K线图要强于大盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、反转确认后，考虑在第七根或者第八根K线进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、成交量的变化及量价比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次走浪形的时候量能会和K线达成共振逐渐放大，当浪形准备回踩的时候，量能也会逐渐的萎缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、KDJ处在低位拐头向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDJ指标处在低位拐头向上 顶背离参数；参数改成：12/4/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数改成12/4/4之后，观察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转需要确认线，蜻蜓点水（背离向上）之后第二根线向上，买进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、宝塔线下方2线或3线齐平由蓝变红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝塔线当成静态的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、强势于大盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b、强势线上方股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、趋势指标上方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势线上方的可以买，趋势线下方的不要碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期均线穿越长期均线回踩第一档反转继续向上确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、反转确认上行8-10根卖出  蜡烛线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、大小趋势线要同时形成共振（看小级别，多周期。30分钟，60分钟，日线）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、布林带使用判断与趋势共振（在布林上轨回落到中轨，继续向上确认布林三线向上，布林刚刚开口介入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,6 +1301,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1251,20 +1334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1278,7 +1347,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1794,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1818,36 +1901,36 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" t="s">
@@ -1855,50 +1938,50 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="13" spans="2:14">
       <c r="C13" t="s">
@@ -1921,6 +2004,238 @@
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="C9:N9"/>
     <mergeCell ref="C10:N11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="25" customFormat="1"/>
+    <row r="4" spans="2:12">
+      <c r="C4" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="2:12" s="25" customFormat="1">
+      <c r="D5" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="2:12" s="25" customFormat="1">
+      <c r="D6" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="2:12" s="25" customFormat="1">
+      <c r="D8" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="2:12" s="25" customFormat="1">
+      <c r="D10" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="C12" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="C13" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="D15" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="D17" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="D18" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="D19" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="D21" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="C12:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1961,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2067,96 +2382,96 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
@@ -2167,45 +2482,45 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="15" spans="2:13">
       <c r="C15" t="s">
@@ -2246,48 +2561,48 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
@@ -2295,34 +2610,34 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2339,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -2356,105 +2671,105 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="18" spans="2:10" ht="21.75">
       <c r="B18" s="14" t="s">
@@ -2462,56 +2777,56 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="2:10">
       <c r="C25" s="15"/>
@@ -2598,48 +2913,48 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2655,7 +2970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
@@ -2671,24 +2986,24 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="C5" s="43"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="17" t="s">
@@ -2696,39 +3011,39 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:10">
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="2:10">
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="12" spans="2:10">
       <c r="D12" t="s">
@@ -2746,144 +3061,144 @@
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="11" t="s">
@@ -2892,16 +3207,16 @@
       <c r="D33" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
     </row>
     <row r="34" spans="3:13">
       <c r="F34" t="s">
@@ -2956,48 +3271,48 @@
       </c>
     </row>
     <row r="45" spans="3:13">
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
     </row>
     <row r="47" spans="3:13">
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
     </row>
     <row r="48" spans="3:13">
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
     </row>
     <row r="49" spans="1:15">
       <c r="E49" s="21"/>
@@ -3050,32 +3365,32 @@
       <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="47" t="s">
         <v>100</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="D54" s="40"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
     </row>
@@ -3095,63 +3410,53 @@
       <c r="L55" s="21"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="D58" s="36"/>
-      <c r="E58" s="35" t="s">
+      <c r="D58" s="45"/>
+      <c r="E58" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="C61" s="37" t="s">
+      <c r="C61" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D24:L26"/>
-    <mergeCell ref="D28:L31"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D17:L20"/>
-    <mergeCell ref="D22:L22"/>
     <mergeCell ref="E58:O58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="C61:M61"/>
@@ -3163,6 +3468,16 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E57:I57"/>
     <mergeCell ref="J57:L57"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D24:L26"/>
+    <mergeCell ref="D28:L31"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D17:L20"/>
+    <mergeCell ref="D22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3181,19 +3496,19 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="3:13">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/StockDiary/股市日志.xlsx
+++ b/StockDiary/股市日志.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,7 +993,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3、反转确认后，考虑在第七根或者第八根K线进去</t>
+    <t>每次走浪形的时候量能会和K线达成共振逐渐放大，当浪形准备回踩的时候，量能也会逐渐的萎缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDJ指标处在低位拐头向上 顶背离参数；参数改成：12/4/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数改成12/4/4之后，观察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转需要确认线，蜻蜓点水（背离向上）之后第二根线向上，买进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝塔线当成静态的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选股策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、强势于大盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b、强势线上方股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、趋势指标上方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、反转确认上行8-10根卖出  蜡烛线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、布林带使用判断与趋势共振（在布林上轨回落到中轨，继续向上确认布林三线向上，布林刚刚开口介入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势线上方的可以买，趋势线下方的不要碰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期均线穿越长期均线回踩第一档反转继续向上确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1001,67 +1049,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每次走浪形的时候量能会和K线达成共振逐渐放大，当浪形准备回踩的时候，量能也会逐渐的萎缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8、KDJ处在低位拐头向上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KDJ指标处在低位拐头向上 顶背离参数；参数改成：12/4/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数改成12/4/4之后，观察</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转需要确认线，蜻蜓点水（背离向上）之后第二根线向上，买进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9、宝塔线下方2线或3线齐平由蓝变红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宝塔线当成静态的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选股策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a、强势于大盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b、强势线上方股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、趋势指标上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趋势线上方的可以买，趋势线下方的不要碰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短期均线穿越长期均线回踩第一档反转继续向上确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、反转确认上行8-10根卖出  蜡烛线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、大小趋势线要同时形成共振（看小级别，多周期。30分钟，60分钟，日线）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、布林带使用判断与趋势共振（在布林上轨回落到中轨，继续向上确认布林三线向上，布林刚刚开口介入</t>
+    <t>5、大小趋势要同时形成共振（看小级别，多周期。30分钟，60分钟，日线）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、短期均线穿越长期均线回踩第一档反转继续向上确认，反转确认后，第8~10根线出掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、资金博弈，主力动向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1268,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1334,6 +1350,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1347,27 +1377,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,36 +1920,36 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" t="s">
@@ -1938,20 +1957,20 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="2:14">
       <c r="C10" s="49" t="s">
@@ -2013,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:L7"/>
+      <selection activeCell="D5" sqref="D5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2026,209 +2045,228 @@
         <v>118</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="25" customFormat="1"/>
     <row r="4" spans="2:12">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="2:12" s="25" customFormat="1">
-      <c r="D5" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="D5" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="2:12" s="25" customFormat="1">
       <c r="D6" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="C7" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="C7" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="2:12" s="25" customFormat="1">
       <c r="D8" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="C9" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="C9" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="2:12" s="25" customFormat="1">
       <c r="D10" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="C11" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="C11" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="C13" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="C13" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="2:12">
       <c r="C14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="D15" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="D15" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:12">
       <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="D17" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="D18" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="D19" s="40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="D17" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="D18" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="D19" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="D21" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="D21" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="D17:L17"/>
+  <mergeCells count="13">
+    <mergeCell ref="C22:L22"/>
     <mergeCell ref="D18:L18"/>
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="D15:L15"/>
@@ -2236,6 +2274,11 @@
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="D17:L17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2986,24 +3029,24 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="C5" s="39"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="17" t="s">
@@ -3035,15 +3078,15 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="12" spans="2:10">
       <c r="D12" t="s">
@@ -3107,20 +3150,20 @@
       <c r="L20" s="26"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="46" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="41"/>
@@ -3207,16 +3250,16 @@
       <c r="D33" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
     </row>
     <row r="34" spans="3:13">
       <c r="F34" t="s">
@@ -3271,16 +3314,16 @@
       </c>
     </row>
     <row r="45" spans="3:13">
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
     </row>
     <row r="46" spans="3:13">
       <c r="E46" s="41" t="s">
@@ -3365,32 +3408,32 @@
       <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="42" t="s">
         <v>100</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="D54" s="47"/>
+      <c r="D54" s="42"/>
       <c r="E54" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
     </row>
@@ -3410,53 +3453,63 @@
       <c r="L55" s="21"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="D58" s="45"/>
-      <c r="E58" s="44" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D24:L26"/>
+    <mergeCell ref="D28:L31"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D17:L20"/>
+    <mergeCell ref="D22:L22"/>
     <mergeCell ref="E58:O58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="C61:M61"/>
@@ -3468,16 +3521,6 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E57:I57"/>
     <mergeCell ref="J57:L57"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D24:L26"/>
-    <mergeCell ref="D28:L31"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D17:L20"/>
-    <mergeCell ref="D22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockDiary/股市日志.xlsx
+++ b/StockDiary/股市日志.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2016-06-17" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="2016-07-18" sheetId="9" r:id="rId9"/>
     <sheet name="2016-07-19" sheetId="10" r:id="rId10"/>
     <sheet name="2016-07-28" sheetId="11" r:id="rId11"/>
+    <sheet name="2016-08-09" sheetId="12" r:id="rId12"/>
+    <sheet name="2017-02-06" sheetId="13" r:id="rId13"/>
+    <sheet name="2017-02-07" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
   <si>
     <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1078,6 +1081,254 @@
   </si>
   <si>
     <t>态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资具备的几点要素：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、实体投资于虚拟投资之间的本质区别、选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、投资于投机之间的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、投资理念与心态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、投资交易计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、投资交易固定的模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六、资金、仓位的管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年重点领域板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能、泛娱乐、IP概念、在线教育、企业服务、消费升级和B2B交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断热点概念炒作的可持续性？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察热点对大盘的带动效应，如果热点板块振臂一呼，迅速带动大盘放量上涨，时常反应积极，说明热点的出现正当其时，是行情所需，可以参与；反之，则需谨慎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研判大盘的反应，还应该注意：一是大盘的上涨必须放量，无量上涨，回调居多；二是在长期的熊市中，热点产生初期，对大盘的带动效应并不明显，往往热点已连涨2-3日，市场才苏醒过来，这时需要参考其他条件综合考虑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主力发动行情是有备而来，多半回仔细研究大盘状态、同板块股票的上涨潜力，在拉升的同时，也非常在意同板块股票的反应。如果反应积极，跟风热烈，可能回积蓄拉升；反之，如果市场反应不积极，一般不会孤军深入，增加市场风险。板块股票呼应度如何，关键还是取决于主力机构的建仓状况、技术状态等。作为普通投资者，在观察板块呼应度的同时，应重点研究其中有多少股票从技术上看具有连续走强的条件。当市场中具备连续上涨条件的股票寥寥无几时，还是谨慎为妙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在建仓初期，一段时间内，比如1-3个月内，某些板块的股票可能会多次表现，但多数无功而返。反复表现的板块股票，应该引起我们的充分重视，这往往是行情即将产生的信号。当主力通过反复振荡，吸足筹码后，真正的行情即会来临。判断振荡吸筹的方法，是看股票的底部是否抬高，底部逐渐抬高，成交量逐渐放大，技术上逐渐向好，此时再启动，可信度较高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点板块的产生固然是适应了行情的需要，但龙头股的激发作用也不可小视。一般规律是，如果龙头股上档无明显的阻力，板块股票的跟风回相对积极；反之，当龙头股上档有明显的阻力时，即便其执意突破，但其他市场主力从谨慎性原则出发，也不会跟风太紧密。市场跟风的弱势效应，反过来也回阻碍龙头股行情的深入发展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对大盘的带动效应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>研判</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2、通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同板块的呼应度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>研判</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3、通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热点启动的次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行研判</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4、通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙头股的阻力位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行研判</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何判断热点强势龙头股？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙头股，当一热点板块走强过程中，上涨时冲锋陷阵在先，回调时抗跌，能够起到稳定军心作用的“旗舰”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、疾风骏马，电闪雷鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封板的速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般而言，追踪热点板块，都是先打龙一，龙头股的爆发力和抗跌性也是最强的。如果打不到，考略倒板块能否有持续性行情，和大盘的环境，可以考虑介入龙二。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于龙二之后的个股，看板块的热度了，如果热度很强，别人吃肉，跟着喝点汤还是有可能的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、资金为王，量价双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么把成交量放在第二，而不是作为第一点写？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这时成交量跟价位，便成为了一个关键的观测点了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    但是到了第二天，有可能出现破板洗筹，或者因为大盘的缘故，板块热点消退，部分资金选在落袋为安的局面而走跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    因为当板块爆发的时候，第一板上的成交量往往是最小的，所以在板的第一天成交量并不是主要依据，而是看板的速度，一级其封板后有没有破板的情况，还有封板的手数多少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果在次日高开的越多，甚至直接封板，则说明越强势。反之如果高开的不多，甚至低开，那么只能说明这些票只是跟板，而不是领涨的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    说完了开盘的价位，还要注意是在大盘震荡的时候，下杀的洗盘幅度。如果出现集合竞价高开，但随后便没有支撑似的下跌，这样的情况大多是板块热点已经快消退了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    再说说量能。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要结合盘子的大小以及当时的成交量。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、盘中观察，逆市为王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为何热点板块总能收到大家的注目，那就是因为其在市场强势的时候，比市场更强。而在时常弱势震荡的时候，也表现出了较好的肌耐力。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1319,6 +1570,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1350,20 +1608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1377,7 +1621,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1385,9 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1920,36 +2176,36 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" t="s">
@@ -1957,50 +2213,50 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="13" spans="2:14">
       <c r="C13" t="s">
@@ -2034,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:L5"/>
     </sheetView>
   </sheetViews>
@@ -2047,43 +2303,43 @@
       <c r="C2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="26" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="25" customFormat="1"/>
     <row r="4" spans="2:12">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="2:12" s="25" customFormat="1">
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="2:12" s="25" customFormat="1">
       <c r="D6" s="25" t="s">
@@ -2091,18 +2347,18 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="2:12" s="25" customFormat="1">
       <c r="D8" s="25" t="s">
@@ -2110,18 +2366,18 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="2:12" s="25" customFormat="1">
       <c r="D10" s="25" t="s">
@@ -2129,46 +2385,46 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="2:12">
       <c r="C14" t="s">
@@ -2176,17 +2432,17 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="2:12">
       <c r="C16" t="s">
@@ -2194,43 +2450,43 @@
       </c>
     </row>
     <row r="17" spans="3:12">
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="3:12">
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="3:12">
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" t="s">
@@ -2238,39 +2494,34 @@
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D21:L21"/>
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="C12:L12"/>
@@ -2278,11 +2529,579 @@
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D21:L21"/>
     <mergeCell ref="D17:L17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1">
+      <c r="C10" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" customHeight="1">
+      <c r="C12" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="2:14" s="27" customFormat="1">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="C16" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="C22" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="C27" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C27:N30"/>
+    <mergeCell ref="C10:N11"/>
+    <mergeCell ref="C12:N13"/>
+    <mergeCell ref="C16:N19"/>
+    <mergeCell ref="C22:N25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="C7" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="C8" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="D14" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="D18" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="D20" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="D22" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C8:O9"/>
+    <mergeCell ref="D14:O15"/>
+    <mergeCell ref="D18:O19"/>
+    <mergeCell ref="D20:O21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2425,96 +3244,96 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
@@ -2525,45 +3344,45 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="15" spans="2:13">
       <c r="C15" t="s">
@@ -2604,48 +3423,48 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
@@ -2653,34 +3472,34 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1">
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2714,105 +3533,105 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="18" spans="2:10" ht="21.75">
       <c r="B18" s="14" t="s">
@@ -2820,56 +3639,56 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10">
       <c r="C25" s="15"/>
@@ -2956,48 +3775,48 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3029,24 +3848,24 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="C5" s="45"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="17" t="s">
@@ -3054,39 +3873,39 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:10">
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="2:10">
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="12" spans="2:10">
       <c r="D12" t="s">
@@ -3104,144 +3923,144 @@
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="11" t="s">
@@ -3250,16 +4069,16 @@
       <c r="D33" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
     </row>
     <row r="34" spans="3:13">
       <c r="F34" t="s">
@@ -3314,48 +4133,48 @@
       </c>
     </row>
     <row r="45" spans="3:13">
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
     </row>
     <row r="47" spans="3:13">
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
     </row>
     <row r="48" spans="3:13">
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:15">
       <c r="E49" s="21"/>
@@ -3408,32 +4227,32 @@
       <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="50" t="s">
         <v>100</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="F53" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="D54" s="42"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="37" t="s">
+      <c r="F54" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
     </row>
@@ -3453,63 +4272,53 @@
       <c r="L55" s="21"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="D58" s="38"/>
-      <c r="E58" s="37" t="s">
+      <c r="D58" s="48"/>
+      <c r="E58" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D24:L26"/>
-    <mergeCell ref="D28:L31"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D17:L20"/>
-    <mergeCell ref="D22:L22"/>
     <mergeCell ref="E58:O58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="C61:M61"/>
@@ -3521,6 +4330,16 @@
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="E57:I57"/>
     <mergeCell ref="J57:L57"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D24:L26"/>
+    <mergeCell ref="D28:L31"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D17:L20"/>
+    <mergeCell ref="D22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3539,19 +4358,19 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="3:13">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/StockDiary/股市日志.xlsx
+++ b/StockDiary/股市日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="2016-06-17" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,16 @@
     <sheet name="2016-08-09" sheetId="12" r:id="rId12"/>
     <sheet name="2017-02-06" sheetId="13" r:id="rId13"/>
     <sheet name="2017-02-07" sheetId="14" r:id="rId14"/>
+    <sheet name="2017-02-08" sheetId="15" r:id="rId15"/>
+    <sheet name="2017-02-09" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="214">
   <si>
     <t>人工智能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,12 +1334,148 @@
     <t>为何热点板块总能收到大家的注目，那就是因为其在市场强势的时候，比市场更强。而在时常弱势震荡的时候，也表现出了较好的肌耐力。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>大宗交易数据和龙虎榜数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深交易龙虎榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日两市中涨跌幅、换手率等由大到小的排名榜单，并从中可以看到龙虎榜单中的股票在哪个证券营业部的成交量较大。该数据有助于了解当日异动个股的资金进出情况，判断是游资所为还是机构所为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上榜条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、日价格涨幅偏离值±7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、日换手率达到20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、日价格振幅达到15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、连续三个交易日内，涨幅偏离值累计达到20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个条件都选前3名的上榜，深市是分主板、中小板、创业板分别前3的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗买卖，指大道规定的最低限额的证券单笔买卖申报，买卖双方经过协议达成一致并经交易所确定成交的证券交易。具体来说，各个交易所在它的交易制度中或者在它的大宗交易制度中都对大宗交易有明确的界定，而且各不相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本所进行的证券买卖符合以下条件的，可以采用大宗交易方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、A股单笔买卖申报数量应当不低于50万股，或者交易金额不低于300万元人名币；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、B股大宗交易的单笔买卖申报数量应当不低于50万股，或者交易金额不低于30万美元；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、基金大宗交易的单笔买卖申报数量应当不低于300万份，或者交易金额不低于300万元；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、国债及债券回购大宗交易的单笔买卖申报数量应当不低于1万手，或者交易金额不低于1000万元；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、其他债券单笔买卖申报数量应当不低于1000手，或者交易金额不低于100万元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构战法之分时图卖法简介</t>
+  </si>
+  <si>
+    <t>股市投资中买股时我们要看分时图，而不管你因为什么原因卖股票，我们也要看眼分时图，在分时图上有我们的买入方法，同样也有我们的卖出方法。今天就给大家介绍两种好学的分时图卖出方法。</t>
+  </si>
+  <si>
+    <t>方法一：尾盘冲高回落卖出法，特别是那些中途涨停被砸的个股</t>
+  </si>
+  <si>
+    <t>如果有心的投资者一定见过这些个股走势：大约在下午2.30之前个股一直在缩量运行，然后股价开始快速拉升，涨势喜人甚至一度涨停，当拉升时内心在左右摇摆，要不要追要不要追？然后有可能涨停了，再然后涨停被大单砸开了…..然后我们的心情由摇摆——后悔——高兴。整个一个过山车的心理曲线走势。那么在这样的实战中我们要不要买呢？我要告诉你的是：NO。我们要及时卖出，上述情况第二天一般股价大概率走弱。</t>
+  </si>
+  <si>
+    <t>在这里我为大家展示了一个较好的案例。分时图显示该股开盘后向下运行但是很快股价被拉回，10点左右股价迅速放量上行站上了一个高位，然后缩量向下运行，下午2.30左右股价再一次放量拉升，然后快速回落。如果懂得分时图简单买入的投资者对分时图阶梯式上行买入把握不到位，此时很容易上套。</t>
+  </si>
+  <si>
+    <t>我们来分析下上面分时图的真正含义。开盘小幅攀升即被打压下行已经透漏出做多意愿不强，然后10点附近的快速拉升是为了吸引跟风盘来接盘，拉升后的缓慢下行验证了10点拉升的诱多行为。而下午2.30左右故技重施，再一次诱多。跟风接盘者接下来会如何呢？我们看下上面相对应的K线图就知晓了。如果在分时图跟风者未能及时离场，将会损失惨重。如果是涨停被砸的个股，我们要更加坚定的看空而不要抱有任何幻想。</t>
+  </si>
+  <si>
+    <t>方法二：反弹受阻回落卖出</t>
+  </si>
+  <si>
+    <t>这一形态的分时图一般出现在股价的高位区域或是股价快速拉升的阶段，在分时图上股价开盘上冲，但是受到大量的抛压盘出现冲高回落的情形，然后股价一直维持在均线附近向下运行，盘中偶尔上冲但是很快就被打落回来向下运行，均线也逐渐向下。而我们的前提是高价区或快速拉升区域，在遇到这一情况时我们就要果断卖出手中的股票，后期即便是有偶尔的拉升也不会持续太久。我们来看下实战图。</t>
+  </si>
+  <si>
+    <t>在上图中我们发现该股处于一个顶部盘整区域中，在7月15日，该股价开盘后小幅爬升，但很快就被抛压打落到均线之下，在10点左右股价再一次向上冲击突破均线，但是再一次被打落回来，接下来股价一直在均线 下方运行未能突破均线。像这样股价多次向上突破但都被抛压打落回来时，我们就要及时清仓手中的持股了，因为我们选择的是高价位区域或是快速拉升趋势，出现这样的情况我们就要非常小心了。我们再来看下接下来交易日该股的分时图。</t>
+  </si>
+  <si>
+    <t>在上图中我们可以看出股价早盘又一次小幅的冲高，但是很快就被打压下来，之后股价再也没有触及均线，沿着下行趋势运行。如果之前你只是减仓，观察了几日后，如果都是差不多的情况，那么我们就要果断离场了。</t>
+  </si>
+  <si>
+    <t>两种方法虽然简单，但是都需要你去进行大量的验证才能够把握好它的精髓所在，如果你能够熟练的掌握它，你就离成功又近了一步。</t>
+  </si>
+  <si>
+    <t>从数据可知上龙虎榜的股票一般两到三天会有一次下跌调整，如果你买了该股票，一般在上龙虎榜后第一天或者第二天就要寻找高点卖出，一般三个交易日亏损幅度会达到很大，所以你没有买这个股票，最好就不要介入。通过龙虎榜的作用，大家在购买之前能够对股票未来预期有一定判断。</t>
+  </si>
+  <si>
+    <t>常用洗盘手法伎俩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一种：跌停洗盘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种洗盘手法庄家最为惯用，快速凶狠，在利空消息出台后，迅速打压股价，营造市场恐慌情绪，在大家都选择绝望离场时，上升行情也就快来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二种：阴线洗盘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心：其实这种庄家的洗盘手法还算容易识别的，在洗盘时通常都呈现放量，但股价跌幅都不会太大，随后进行一波缩量整理行情，往往预示着拉升即刻来临。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三种：涨停突破法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当股票经历大幅下跌后，庄家拉出了涨停，吸引散户关注，不过在接下来的3-6个交易日内，股价持续走低，盘中散户经不住折磨纷纷割肉离场，实现一次高买低卖的操作，当散户纷纷抛出手中筹码后，庄家开始大幅拉升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心：这种K线十分常见，往往都能微庄家接下来的拉升动作降低不少的成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,6 +1560,32 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1535,7 +1700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1576,6 +1741,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1643,7 +1817,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1656,6 +1835,176 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="http://gbres.dfcfw.com/Files/picture/20170128/D105CCDA7D7B6252ACF7AA7B9D3EAF4B.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="2409825"/>
+          <a:ext cx="7153275" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="http://gbres.dfcfw.com/Files/picture/20170128/B49B85AD15D5B3FAA9DBDC1C39D0C435.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="10296525"/>
+          <a:ext cx="7524750" cy="5981700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="http://gbres.dfcfw.com/Files/picture/20170128/45FCE4D4B6CA0249ED2894333C0040BD.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="17325975"/>
+          <a:ext cx="6477000" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2176,36 +2525,36 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" t="s">
@@ -2213,50 +2562,50 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="13" spans="2:14">
       <c r="C13" t="s">
@@ -2315,31 +2664,31 @@
     </row>
     <row r="3" spans="2:12" s="25" customFormat="1"/>
     <row r="4" spans="2:12">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="2:12" s="25" customFormat="1">
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="2:12" s="25" customFormat="1">
       <c r="D6" s="25" t="s">
@@ -2347,18 +2696,18 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="2:12" s="25" customFormat="1">
       <c r="D8" s="25" t="s">
@@ -2366,18 +2715,18 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="2:12" s="25" customFormat="1">
       <c r="D10" s="25" t="s">
@@ -2385,46 +2734,46 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="2:12">
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="2:12">
       <c r="C14" t="s">
@@ -2432,17 +2781,17 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="2:12">
       <c r="C16" t="s">
@@ -2450,43 +2799,43 @@
       </c>
     </row>
     <row r="17" spans="3:12">
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="3:12">
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="3:12">
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" t="s">
@@ -2494,31 +2843,31 @@
       </c>
     </row>
     <row r="21" spans="3:12">
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="3:12">
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2625,64 +2974,64 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="13.5" customHeight="1">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" customHeight="1">
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="2:14" s="27" customFormat="1">
       <c r="C14" s="28"/>
@@ -2704,62 +3053,62 @@
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="11" t="s">
@@ -2767,62 +3116,62 @@
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="11" t="s">
@@ -2830,62 +3179,62 @@
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2905,7 +3254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -2922,7 +3271,7 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="30" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2932,36 +3281,36 @@
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
     </row>
     <row r="10" spans="2:15">
       <c r="C10" t="s">
@@ -2969,7 +3318,7 @@
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="30" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2979,34 +3328,34 @@
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="2:15">
       <c r="D16" t="s">
@@ -3019,64 +3368,64 @@
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="2:15">
       <c r="D22" s="11" t="s">
@@ -3084,7 +3433,7 @@
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3102,6 +3451,786 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="C8" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" s="29" customFormat="1"/>
+    <row r="16" spans="2:15" s="29" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C16" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+    </row>
+    <row r="17" spans="2:15" s="29" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+    </row>
+    <row r="18" spans="2:15" s="29" customFormat="1" ht="14.25" customHeight="1">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="C21" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="C29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:O6"/>
+    <mergeCell ref="C21:O22"/>
+    <mergeCell ref="C16:O18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O145" sqref="O145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:15" ht="14.25">
+      <c r="B2" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="C4" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+    </row>
+    <row r="5" spans="2:15" s="29" customFormat="1">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="2:15" s="29" customFormat="1">
+      <c r="C6" s="33"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="C10" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+    </row>
+    <row r="45" spans="3:15" ht="13.5" customHeight="1">
+      <c r="C45" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+    </row>
+    <row r="49" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C49" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="13.5" customHeight="1">
+      <c r="C57" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+    </row>
+    <row r="97" spans="3:15">
+      <c r="C97" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="61"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="61"/>
+      <c r="K97" s="61"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
+      <c r="N97" s="61"/>
+      <c r="O97" s="61"/>
+    </row>
+    <row r="98" spans="3:15">
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="61"/>
+      <c r="L98" s="61"/>
+      <c r="M98" s="61"/>
+      <c r="N98" s="61"/>
+      <c r="O98" s="61"/>
+    </row>
+    <row r="99" spans="3:15">
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="61"/>
+      <c r="N99" s="61"/>
+      <c r="O99" s="61"/>
+    </row>
+    <row r="100" spans="3:15">
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="61"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="61"/>
+      <c r="N100" s="61"/>
+      <c r="O100" s="61"/>
+    </row>
+    <row r="138" spans="3:15">
+      <c r="C138" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="D138" s="61"/>
+      <c r="E138" s="61"/>
+      <c r="F138" s="61"/>
+      <c r="G138" s="61"/>
+      <c r="H138" s="61"/>
+      <c r="I138" s="61"/>
+      <c r="J138" s="61"/>
+      <c r="K138" s="61"/>
+      <c r="L138" s="61"/>
+      <c r="M138" s="61"/>
+      <c r="N138" s="61"/>
+      <c r="O138" s="61"/>
+    </row>
+    <row r="139" spans="3:15">
+      <c r="C139" s="61"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="61"/>
+      <c r="G139" s="61"/>
+      <c r="H139" s="61"/>
+      <c r="I139" s="61"/>
+      <c r="J139" s="61"/>
+      <c r="K139" s="61"/>
+      <c r="L139" s="61"/>
+      <c r="M139" s="61"/>
+      <c r="N139" s="61"/>
+      <c r="O139" s="61"/>
+    </row>
+    <row r="141" spans="3:15">
+      <c r="C141" s="33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C57:O59"/>
+    <mergeCell ref="C97:O100"/>
+    <mergeCell ref="C138:O139"/>
+    <mergeCell ref="C4:O5"/>
+    <mergeCell ref="C10:O13"/>
+    <mergeCell ref="C45:O47"/>
+    <mergeCell ref="C49:O52"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:16">
+      <c r="B2" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="C10" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="C15" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C10:P11"/>
+    <mergeCell ref="C15:P16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3244,96 +4373,96 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
@@ -3344,45 +4473,45 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="15" spans="2:13">
       <c r="C15" t="s">
@@ -3423,48 +4552,48 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" t="s">
@@ -3472,34 +4601,34 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.25" customHeight="1">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3533,105 +4662,105 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="18" spans="2:10" ht="21.75">
       <c r="B18" s="14" t="s">
@@ -3639,56 +4768,56 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
     </row>
     <row r="25" spans="2:10">
       <c r="C25" s="15"/>
@@ -3775,48 +4904,48 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3848,24 +4977,24 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="C5" s="42"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="17" t="s">
@@ -3873,39 +5002,39 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="2:10">
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:10">
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="12" spans="2:10">
       <c r="D12" t="s">
@@ -3923,144 +5052,144 @@
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="4:12">
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
     </row>
     <row r="26" spans="4:12">
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="28" spans="4:12">
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
     </row>
     <row r="29" spans="4:12">
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
     </row>
     <row r="30" spans="4:12">
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="11" t="s">
@@ -4069,16 +5198,16 @@
       <c r="D33" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="3:13">
       <c r="F34" t="s">
@@ -4133,48 +5262,48 @@
       </c>
     </row>
     <row r="45" spans="3:13">
-      <c r="E45" s="45" t="s">
+      <c r="E45" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="E46" s="44" t="s">
+      <c r="E46" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
     </row>
     <row r="47" spans="3:13">
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
     </row>
     <row r="48" spans="3:13">
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
     </row>
     <row r="49" spans="1:15">
       <c r="E49" s="21"/>
@@ -4227,32 +5356,32 @@
       <c r="L52" s="21"/>
     </row>
     <row r="53" spans="1:15" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="57" t="s">
         <v>100</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="47" t="s">
+      <c r="F53" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="D54" s="50"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="47" t="s">
+      <c r="F54" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
     </row>
@@ -4272,50 +5401,50 @@
       <c r="L55" s="21"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="D58" s="48"/>
-      <c r="E58" s="47" t="s">
+      <c r="D58" s="55"/>
+      <c r="E58" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4358,19 +5487,19 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="3:13">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
